--- a/data/s_vals/2023/bristo_braden.xlsx
+++ b/data/s_vals/2023/bristo_braden.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.068618644991547</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.911760814532658</v>
+        <v>7.878242263594639</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.177670522940608</v>
+        <v>7.700638116232206</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C4" t="n">
-        <v>3.291990378735282</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D4" t="n">
-        <v>4.554528715529886</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E4" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>13.43034664095256</v>
+        <v>417.2004692788387</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/bristo_braden.xlsx
+++ b/data/s_vals/2023/bristo_braden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>7.878242263594639</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>7.700638116232206</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>417.2004692788387</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/bristo_braden.xlsx
+++ b/data/s_vals/2023/bristo_braden.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3464964993005633</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.878242263594639</v>
+        <v>11.54378914222666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E3" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.700638116232206</v>
+        <v>11.30934864997202</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>9.226618575922256</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8057217802531</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E4" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>417.2004692788387</v>
+        <v>1407.990898466191</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
